--- a/Output_2.xlsx
+++ b/Output_2.xlsx
@@ -674,30 +674,20 @@
       <c r="F6" t="n">
         <v>6</v>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="G6" t="n">
+        <v>3</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4</v>
+      </c>
+      <c r="J6" t="n">
+        <v>74</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -726,19 +716,19 @@
         <v>10</v>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>187</v>
+        <v>270</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -766,30 +756,20 @@
       <c r="F8" t="n">
         <v>8</v>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="G8" t="n">
+        <v>6</v>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" t="n">
+        <v>365</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -818,19 +798,19 @@
         <v>8</v>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
-        <v>187</v>
+        <v>234</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -940,30 +920,20 @@
       <c r="F12" t="n">
         <v>10</v>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="G12" t="n">
+        <v>5</v>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1674</v>
+      </c>
+      <c r="K12" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -991,30 +961,20 @@
       <c r="F13" t="n">
         <v>10</v>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="G13" t="n">
+        <v>6</v>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1066</v>
+      </c>
+      <c r="K13" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -1042,30 +1002,20 @@
       <c r="F14" t="n">
         <v>10</v>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="G14" t="n">
+        <v>7</v>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>691</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -1258,19 +1208,19 @@
         <v>10</v>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>125</v>
+        <v>58</v>
       </c>
       <c r="K19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -1299,19 +1249,19 @@
         <v>10</v>
       </c>
       <c r="G20" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H20" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>79</v>
+        <v>717</v>
       </c>
       <c r="K20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -1340,16 +1290,16 @@
         <v>10</v>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>125</v>
+        <v>181</v>
       </c>
       <c r="K21" t="n">
         <v>3</v>
@@ -1381,19 +1331,19 @@
         <v>10</v>
       </c>
       <c r="G22" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H22" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>79</v>
+        <v>303</v>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -1462,30 +1412,20 @@
       <c r="F24" t="n">
         <v>10</v>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="G24" t="n">
+        <v>6</v>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>285</v>
+      </c>
+      <c r="K24" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="25">
@@ -1637,19 +1577,19 @@
         <v>10</v>
       </c>
       <c r="G28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>559</v>
+        <v>509</v>
       </c>
       <c r="K28" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
@@ -1678,19 +1618,19 @@
         <v>10</v>
       </c>
       <c r="G29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>136</v>
+        <v>619</v>
       </c>
       <c r="K29" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30">
@@ -1883,19 +1823,19 @@
         <v>10</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K34" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35">
@@ -1923,30 +1863,20 @@
       <c r="F35" t="n">
         <v>10</v>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="G35" t="n">
+        <v>4</v>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>91</v>
+      </c>
+      <c r="K35" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="36">
@@ -1975,19 +1905,19 @@
         <v>10</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="K36" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37">
@@ -2221,16 +2151,16 @@
         <v>10</v>
       </c>
       <c r="G42" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H42" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>239</v>
+        <v>474</v>
       </c>
       <c r="K42" t="n">
         <v>1</v>
@@ -2262,19 +2192,19 @@
         <v>10</v>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>267</v>
+        <v>362</v>
       </c>
       <c r="K43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
@@ -2303,19 +2233,19 @@
         <v>10</v>
       </c>
       <c r="G44" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H44" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>239</v>
+        <v>273</v>
       </c>
       <c r="K44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45">
@@ -2549,19 +2479,19 @@
         <v>10</v>
       </c>
       <c r="G50" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>72</v>
+        <v>247</v>
       </c>
       <c r="K50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51">
@@ -2590,19 +2520,19 @@
         <v>10</v>
       </c>
       <c r="G51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>194</v>
+        <v>495</v>
       </c>
       <c r="K51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52">
@@ -2631,19 +2561,19 @@
         <v>10</v>
       </c>
       <c r="G52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>72</v>
+        <v>319</v>
       </c>
       <c r="K52" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53">
@@ -2877,19 +2807,19 @@
         <v>10</v>
       </c>
       <c r="G58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="K58" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59">
@@ -2918,19 +2848,19 @@
         <v>10</v>
       </c>
       <c r="G59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="K59" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60">
@@ -2968,10 +2898,10 @@
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="K60" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61">
@@ -3081,30 +3011,20 @@
       <c r="F63" t="n">
         <v>10</v>
       </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>221</v>
+      </c>
+      <c r="K63" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="64">
@@ -3214,30 +3134,20 @@
       <c r="F66" t="n">
         <v>10</v>
       </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="G66" t="n">
+        <v>4</v>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1082</v>
+      </c>
+      <c r="K66" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="67">
@@ -3265,30 +3175,20 @@
       <c r="F67" t="n">
         <v>10</v>
       </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="G67" t="n">
+        <v>3</v>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>53</v>
+      </c>
+      <c r="K67" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="68">
@@ -3439,30 +3339,20 @@
       <c r="F71" t="n">
         <v>10</v>
       </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="G71" t="n">
+        <v>3</v>
+      </c>
+      <c r="H71" t="n">
+        <v>3</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>183</v>
+      </c>
+      <c r="K71" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="72">
@@ -3490,30 +3380,20 @@
       <c r="F72" t="n">
         <v>10</v>
       </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="G72" t="n">
+        <v>7</v>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>123</v>
+      </c>
+      <c r="K72" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="73">
@@ -3541,30 +3421,20 @@
       <c r="F73" t="n">
         <v>10</v>
       </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="G73" t="n">
+        <v>4</v>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>73</v>
+      </c>
+      <c r="K73" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
